--- a/GenerarDocumentacion/EjemplosToExcel/Ej1_NPOI/Salida/mi_archivo.xlsx
+++ b/GenerarDocumentacion/EjemplosToExcel/Ej1_NPOI/Salida/mi_archivo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t xml:space="preserve">DNI</t>
   </si>
@@ -26,16 +26,28 @@
     <t xml:space="preserve">HORA NACIMIENTO</t>
   </si>
   <si>
+    <t xml:space="preserve">VALOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PESO</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Juan</t>
   </si>
   <si>
+    <t xml:space="preserve">03:04:05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Giuliana</t>
   </si>
   <si>
     <t xml:space="preserve">Regina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:07:08</t>
   </si>
   <si>
     <t xml:space="preserve">Natalia</t>
@@ -45,10 +57,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="###,###,###"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="h:m:s"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="* h:m:ss;@"/>
+    <numFmt numFmtId="167" formatCode="* 0.00;@"/>
+    <numFmt numFmtId="168" formatCode="$* #,##0.00;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -88,33 +102,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -126,13 +146,6 @@
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.6484375" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
@@ -147,73 +160,91 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="8">
         <v>40122312</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8">
-        <v>36557.1278356481</v>
-      </c>
-      <c r="D2" s="9">
-        <v>36557.1278356481</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.12</v>
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10">
+        <v>36557</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F2" s="13">
+        <v>23432.12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11">
+      <c r="A3" s="14">
         <v>23142512</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="13">
-        <v>36872.1278356481</v>
-      </c>
-      <c r="D3" s="14">
-        <v>36872.1278356481</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0.12</v>
+      <c r="B3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16">
+        <v>36872</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="F3" s="19">
+        <v>23432.12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16">
+      <c r="A4" s="20">
         <v>36322312</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="18">
-        <v>34711.2549537037</v>
-      </c>
-      <c r="D4" s="19">
-        <v>34711.2549537037</v>
-      </c>
-      <c r="E4" s="20">
-        <v>0.12</v>
+      <c r="B4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="22">
+        <v>34711</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="F4" s="25">
+        <v>23432.12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21">
+      <c r="A5" s="26">
         <v>37332212</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="23">
-        <v>34711.2549537037</v>
-      </c>
-      <c r="D5" s="24">
-        <v>34711.2549537037</v>
-      </c>
-      <c r="E5" s="25">
-        <v>0.12</v>
+      <c r="B5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="28">
+        <v>34711</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0.12</v>
+      </c>
+      <c r="F5" s="31">
+        <v>23432.12</v>
       </c>
     </row>
   </sheetData>
